--- a/data/trans_orig/Predimed-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Habitat-trans_orig.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>6.870952065264398</v>
+        <v>6.870952065264397</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>6.800841395030665</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.687357073510698</v>
+        <v>6.675963098362514</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.661867117651074</v>
+        <v>6.653749212334335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.710619855674951</v>
+        <v>6.715557620036471</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.071050351407498</v>
+        <v>7.044161961727329</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.95576809503225</v>
+        <v>6.94778068629349</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.952838071694457</v>
+        <v>6.950539453195395</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>6.204285247166909</v>
+        <v>6.20428524716691</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>6.214586258812313</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6.209496910878574</v>
+        <v>6.209496910878575</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.029482056340601</v>
+        <v>6.042951878163886</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.081903480238469</v>
+        <v>6.084994738438013</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.09677497156145</v>
+        <v>6.105535665600447</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.378339715874407</v>
+        <v>6.398398482168553</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.348248491969458</v>
+        <v>6.346823267674243</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.3325461919075</v>
+        <v>6.319760014464196</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>6.382674964442582</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.317842214027067</v>
+        <v>6.317842214027066</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.037819608031882</v>
+        <v>6.063885587469191</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.217979802184441</v>
+        <v>6.221874913318136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.189806275100208</v>
+        <v>6.186742020146585</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.462586504531221</v>
+        <v>6.456820515448514</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.534373317899087</v>
+        <v>6.548215546074669</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.441691174733562</v>
+        <v>6.44504099340949</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>6.29806617395582</v>
+        <v>6.298066173955819</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.405285075562242</v>
+        <v>6.405285075562241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.355128924187289</v>
+        <v>6.35512892418729</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.123120935815887</v>
+        <v>6.123059372378728</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.279037109522401</v>
+        <v>6.279002604652536</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.247384136751037</v>
+        <v>6.240474396503175</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.449454874434557</v>
+        <v>6.454994333083314</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.53538684275675</v>
+        <v>6.543116524780705</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.450795761136919</v>
+        <v>6.458871362017102</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>6.422786031055798</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.396894172096228</v>
+        <v>6.396894172096229</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.278462830819583</v>
+        <v>6.272761690076704</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.34974816450548</v>
+        <v>6.355140244838434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.337867073313646</v>
+        <v>6.337563815624526</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.467716736445988</v>
+        <v>6.459982137239424</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.491721878775881</v>
+        <v>6.493937532203584</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.458002250585348</v>
+        <v>6.456577537939424</v>
       </c>
     </row>
     <row r="19">
